--- a/deployment/Omaha_Cal_Info_CP01CNSP_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP01CNSP_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP_mod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="5892" windowWidth="29040" windowHeight="13800" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="9540" yWindow="6400" windowWidth="29040" windowHeight="13800" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="acs_181_calData" localSheetId="4">Sheet1!$A$1:$CA$161</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -442,7 +437,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +678,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1350,7 +1352,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1445,7 +1447,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1460,6 +1461,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="37" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="548">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -2025,17 +2030,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Read Me"/>
       <sheetName val="Moorings"/>
-      <sheetName val="Asset_Cal_Info"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2369,28 +2370,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="39.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="39.5" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="28">
       <c r="A1" s="7" t="s">
         <v>101</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2444,23 +2445,25 @@
       <c r="E2" s="37">
         <v>42208</v>
       </c>
-      <c r="F2" s="38">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="43" t="s">
+      <c r="F2" s="45">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="G2" s="44">
+        <v>42291</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <v>134</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>72</v>
       </c>
       <c r="M2" s="16">
@@ -2472,91 +2475,91 @@
         <v>-70.77</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="21" customFormat="1">
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="21" customFormat="1">
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="24"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="21" customFormat="1">
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="24"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="21" customFormat="1">
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="21" customFormat="1">
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="21" customFormat="1">
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="21" customFormat="1">
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="21" customFormat="1">
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="21" customFormat="1">
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="21" customFormat="1">
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="21" customFormat="1">
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="21" customFormat="1">
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="21" customFormat="1">
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="21" customFormat="1">
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="4:7" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="21" customFormat="1">
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -2577,23 +2580,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.1640625" style="13" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2622,10 +2625,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="13" customFormat="1">
       <c r="A3" s="17" t="s">
         <v>94</v>
       </c>
@@ -2638,7 +2641,7 @@
       <c r="D3" s="26">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>105</v>
       </c>
       <c r="F3" s="35">
@@ -2647,14 +2650,14 @@
       <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>40.134083333333336</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="13" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
@@ -2667,7 +2670,7 @@
       <c r="D4" s="27">
         <v>4</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="35">
@@ -2676,14 +2679,14 @@
       <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>-70.770133333333305</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="13" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
@@ -2696,7 +2699,7 @@
       <c r="D5" s="27">
         <v>4</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>105</v>
       </c>
       <c r="F5" s="35">
@@ -2712,7 +2715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="13" customFormat="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="33"/>
@@ -2721,7 +2724,7 @@
       <c r="F6" s="35"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="13" customFormat="1">
       <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
@@ -2734,7 +2737,7 @@
       <c r="D7" s="26">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="36" t="s">
@@ -2750,7 +2753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="13" customFormat="1">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -2763,7 +2766,7 @@
       <c r="D8" s="27">
         <v>4</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="36" t="s">
@@ -2777,7 +2780,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="13" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>95</v>
       </c>
@@ -2790,7 +2793,7 @@
       <c r="D9" s="27">
         <v>4</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F9" s="36" t="s">
@@ -2804,7 +2807,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="13" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -2817,7 +2820,7 @@
       <c r="D10" s="27">
         <v>4</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="36" t="s">
@@ -2831,7 +2834,7 @@
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="13" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>95</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="D11" s="27">
         <v>4</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="36" t="s">
@@ -2858,7 +2861,7 @@
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="13" customFormat="1">
       <c r="A12" s="14" t="s">
         <v>95</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="D12" s="27">
         <v>4</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F12" s="36" t="s">
@@ -2885,7 +2888,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="13" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>95</v>
       </c>
@@ -2898,7 +2901,7 @@
       <c r="D13" s="27">
         <v>4</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="36" t="s">
@@ -2912,7 +2915,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="13" customFormat="1">
       <c r="A14" s="14" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +2928,7 @@
       <c r="D14" s="27">
         <v>4</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="36" t="s">
@@ -2939,7 +2942,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="13" customFormat="1">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="33"/>
@@ -2948,7 +2951,7 @@
       <c r="F15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="13" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>67</v>
       </c>
@@ -2961,7 +2964,7 @@
       <c r="D16" s="26">
         <v>4</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>108</v>
       </c>
       <c r="F16" s="35" t="s">
@@ -2970,14 +2973,14 @@
       <c r="G16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <v>40.134083333333336</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="13" customFormat="1">
       <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
@@ -2990,7 +2993,7 @@
       <c r="D17" s="27">
         <v>4</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="35" t="s">
@@ -2999,14 +3002,14 @@
       <c r="G17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>-70.770133333333305</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="13" customFormat="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="33"/>
@@ -3015,7 +3018,7 @@
       <c r="F18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="13" customFormat="1">
       <c r="A19" s="17" t="s">
         <v>96</v>
       </c>
@@ -3028,7 +3031,7 @@
       <c r="D19" s="26">
         <v>4</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F19" s="35">
@@ -3037,14 +3040,14 @@
       <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>217</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="13" customFormat="1">
       <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
@@ -3057,7 +3060,7 @@
       <c r="D20" s="27">
         <v>4</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F20" s="35">
@@ -3066,14 +3069,14 @@
       <c r="G20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>240</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="13" customFormat="1">
       <c r="A21" s="14" t="s">
         <v>96</v>
       </c>
@@ -3086,7 +3089,7 @@
       <c r="D21" s="27">
         <v>4</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F21" s="35">
@@ -3102,7 +3105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="13" customFormat="1">
       <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
@@ -3115,7 +3118,7 @@
       <c r="D22" s="27">
         <v>4</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="35">
@@ -3131,7 +3134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="13" customFormat="1">
       <c r="A23" s="14" t="s">
         <v>96</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="D23" s="27">
         <v>4</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="35">
@@ -3160,7 +3163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="13" customFormat="1">
       <c r="A24" s="14" t="s">
         <v>96</v>
       </c>
@@ -3173,7 +3176,7 @@
       <c r="D24" s="27">
         <v>4</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="35">
@@ -3189,7 +3192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="13" customFormat="1">
       <c r="A25" s="14" t="s">
         <v>96</v>
       </c>
@@ -3202,7 +3205,7 @@
       <c r="D25" s="27">
         <v>4</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>109</v>
       </c>
       <c r="F25" s="35">
@@ -3218,7 +3221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="13" customFormat="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="33"/>
@@ -3227,7 +3230,7 @@
       <c r="F26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="13" customFormat="1">
       <c r="A27" s="17" t="s">
         <v>68</v>
       </c>
@@ -3240,7 +3243,7 @@
       <c r="D27" s="26">
         <v>4</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="35">
@@ -3253,7 +3256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="13" customFormat="1">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -3266,7 +3269,7 @@
       <c r="D28" s="27">
         <v>4</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="35">
@@ -3279,7 +3282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="13" customFormat="1">
       <c r="A29" s="14" t="s">
         <v>68</v>
       </c>
@@ -3292,7 +3295,7 @@
       <c r="D29" s="27">
         <v>4</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="35">
@@ -3305,7 +3308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="13" customFormat="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="33"/>
@@ -3314,7 +3317,7 @@
       <c r="F30" s="28"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="13" customFormat="1">
       <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="D31" s="26">
         <v>4</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F31" s="35">
@@ -3343,7 +3346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="13" customFormat="1">
       <c r="A32" s="14" t="s">
         <v>97</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="D32" s="27">
         <v>4</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F32" s="35">
@@ -3365,14 +3368,14 @@
       <c r="G32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="40">
         <v>3.0630000000000002E-6</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="13" customFormat="1">
       <c r="A33" s="14" t="s">
         <v>97</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="D33" s="27">
         <v>4</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="35">
@@ -3401,7 +3404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="13" customFormat="1">
       <c r="A34" s="14" t="s">
         <v>97</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="D34" s="27">
         <v>4</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F34" s="35">
@@ -3430,7 +3433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="13" customFormat="1">
       <c r="A35" s="14" t="s">
         <v>97</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="D35" s="27">
         <v>4</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F35" s="35">
@@ -3459,7 +3462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="13" customFormat="1">
       <c r="A36" s="14" t="s">
         <v>97</v>
       </c>
@@ -3472,7 +3475,7 @@
       <c r="D36" s="27">
         <v>4</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F36" s="35">
@@ -3488,7 +3491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="13" customFormat="1">
       <c r="A37" s="14" t="s">
         <v>97</v>
       </c>
@@ -3501,7 +3504,7 @@
       <c r="D37" s="27">
         <v>4</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="35">
@@ -3510,14 +3513,14 @@
       <c r="G37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <v>124</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="13" customFormat="1">
       <c r="A38" s="14" t="s">
         <v>97</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="D38" s="27">
         <v>4</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F38" s="35">
@@ -3539,14 +3542,14 @@
       <c r="G38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <v>700</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="13" customFormat="1">
       <c r="A39" s="14" t="s">
         <v>97</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="D39" s="27">
         <v>4</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F39" s="35">
@@ -3568,14 +3571,14 @@
       <c r="G39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <v>1.0760000000000001</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="13" customFormat="1">
       <c r="A40" s="14" t="s">
         <v>97</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="D40" s="27">
         <v>4</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="43" t="s">
         <v>111</v>
       </c>
       <c r="F40" s="35">
@@ -3597,14 +3600,14 @@
       <c r="G40" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <v>3.9E-2</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="13" customFormat="1">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="33"/>
@@ -3613,7 +3616,7 @@
       <c r="F41" s="28"/>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="13" customFormat="1">
       <c r="A42" s="17" t="s">
         <v>98</v>
       </c>
@@ -3626,7 +3629,7 @@
       <c r="D42" s="26">
         <v>4</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="35" t="s">
@@ -3635,14 +3638,14 @@
       <c r="G42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="39">
         <v>40.134083333333301</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="13" customFormat="1">
       <c r="A43" s="14" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3658,7 @@
       <c r="D43" s="27">
         <v>4</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="35" t="s">
@@ -3664,14 +3667,14 @@
       <c r="G43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="39">
         <v>-70.770133333333305</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="13" customFormat="1">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="33"/>
@@ -3680,7 +3683,7 @@
       <c r="F44" s="28"/>
       <c r="H44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="13" customFormat="1">
       <c r="A45" s="17" t="s">
         <v>69</v>
       </c>
@@ -3693,7 +3696,7 @@
       <c r="D45" s="26">
         <v>4</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="43" t="s">
         <v>113</v>
       </c>
       <c r="F45" s="35">
@@ -3706,7 +3709,7 @@
         <v>1.3589</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="13" customFormat="1">
       <c r="A46" s="14" t="s">
         <v>69</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="D46" s="27">
         <v>4</v>
       </c>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="43" t="s">
         <v>113</v>
       </c>
       <c r="F46" s="35">
@@ -3732,7 +3735,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="13" customFormat="1">
       <c r="A47" s="14" t="s">
         <v>69</v>
       </c>
@@ -3745,7 +3748,7 @@
       <c r="D47" s="27">
         <v>4</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="43" t="s">
         <v>113</v>
       </c>
       <c r="F47" s="35">
@@ -3758,13 +3761,13 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="25" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="25" customFormat="1">
       <c r="C48" s="34"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="H48" s="29"/>
     </row>
-    <row r="49" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="13" customFormat="1">
       <c r="A49" s="31" t="s">
         <v>70</v>
       </c>
@@ -3785,10 +3788,10 @@
       </c>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:8" s="13" customFormat="1"/>
+    <row r="51" spans="1:8" s="13" customFormat="1"/>
+    <row r="52" spans="1:8" s="13" customFormat="1"/>
+    <row r="53" spans="1:8" s="13" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3806,12 +3809,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="32"/>
+    <col min="1" max="16384" width="11.5" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" customFormat="1">
       <c r="A1">
         <v>-0.133385</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>5.9284000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" customFormat="1">
       <c r="A2">
         <v>-0.12271600000000001</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>5.2031000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" customFormat="1">
       <c r="A3">
         <v>-0.106986</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>4.5156000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" customFormat="1">
       <c r="A4">
         <v>-9.3688999999999995E-2</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>3.7352999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" customFormat="1">
       <c r="A5">
         <v>-8.2291000000000003E-2</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>3.1369000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" customFormat="1">
       <c r="A6">
         <v>-7.1478E-2</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>2.6693999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" customFormat="1">
       <c r="A7">
         <v>-6.3391000000000003E-2</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>2.3102999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" customFormat="1">
       <c r="A8">
         <v>-5.6606999999999998E-2</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>2.0542000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" customFormat="1">
       <c r="A9">
         <v>-5.1151000000000002E-2</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>1.8499000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" customFormat="1">
       <c r="A10">
         <v>-4.6461000000000002E-2</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>1.6685999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" customFormat="1">
       <c r="A11">
         <v>-4.2729999999999997E-2</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>1.5391E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" customFormat="1">
       <c r="A12">
         <v>-3.9294000000000003E-2</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>1.3746E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" customFormat="1">
       <c r="A13">
         <v>-3.6886000000000002E-2</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>1.2531E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" customFormat="1">
       <c r="A14">
         <v>-3.4603000000000002E-2</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>1.1544E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" customFormat="1">
       <c r="A15">
         <v>-3.2263E-2</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>1.0629E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" customFormat="1">
       <c r="A16">
         <v>-3.0047999999999998E-2</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>9.9539999999999993E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" customFormat="1">
       <c r="A17">
         <v>-2.8740000000000002E-2</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" customFormat="1">
       <c r="A18">
         <v>-2.6904000000000001E-2</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>8.8509999999999995E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" customFormat="1">
       <c r="A19">
         <v>-2.5165E-2</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>8.4279999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" customFormat="1">
       <c r="A20">
         <v>-2.3598999999999998E-2</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>8.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" customFormat="1">
       <c r="A21">
         <v>-2.2419999999999999E-2</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>7.7739999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" customFormat="1">
       <c r="A22">
         <v>-2.1426000000000001E-2</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>7.5079999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" customFormat="1">
       <c r="A23">
         <v>-2.0347000000000001E-2</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>7.2659999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" customFormat="1">
       <c r="A24">
         <v>-1.9337E-2</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>6.9820000000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" customFormat="1">
       <c r="A25">
         <v>-1.8768E-2</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>6.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" customFormat="1">
       <c r="A26">
         <v>-1.8110000000000001E-2</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>6.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" customFormat="1">
       <c r="A27">
         <v>-1.7107000000000001E-2</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>6.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" customFormat="1">
       <c r="A28">
         <v>-1.6622000000000001E-2</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>6.1609999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" customFormat="1">
       <c r="A29">
         <v>-1.6263E-2</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>5.9849999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" customFormat="1">
       <c r="A30">
         <v>-1.5591000000000001E-2</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>5.7970000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" customFormat="1">
       <c r="A31">
         <v>-1.5424999999999999E-2</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>5.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" customFormat="1">
       <c r="A32">
         <v>-1.4819000000000001E-2</v>
       </c>
@@ -7427,7 +7430,7 @@
         <v>5.4010000000000004E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" customFormat="1">
       <c r="A33">
         <v>-1.4581E-2</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>5.1939999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" customFormat="1">
       <c r="A34">
         <v>-1.4089000000000001E-2</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>4.9490000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" customFormat="1">
       <c r="A35">
         <v>-1.3668E-2</v>
       </c>
@@ -7766,7 +7769,7 @@
         <v>4.7390000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" customFormat="1">
       <c r="A36">
         <v>-1.3519E-2</v>
       </c>
@@ -7879,7 +7882,7 @@
         <v>4.4320000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" customFormat="1">
       <c r="A37">
         <v>-1.3158E-2</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" customFormat="1">
       <c r="A38">
         <v>-1.3108E-2</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>3.7820000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" customFormat="1">
       <c r="A39">
         <v>-1.3062000000000001E-2</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>3.4949999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" customFormat="1">
       <c r="A40">
         <v>-1.3098E-2</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>3.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" customFormat="1">
       <c r="A41">
         <v>-1.2859000000000001E-2</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>2.947E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" customFormat="1">
       <c r="A42">
         <v>-1.281E-2</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>2.686E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" customFormat="1">
       <c r="A43">
         <v>-1.2343E-2</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" customFormat="1">
       <c r="A44">
         <v>-1.1986999999999999E-2</v>
       </c>
@@ -8783,7 +8786,7 @@
         <v>2.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" customFormat="1">
       <c r="A45">
         <v>-1.0781000000000001E-2</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>3.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" customFormat="1">
       <c r="A46">
         <v>-1.073E-2</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>3.2039999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" customFormat="1">
       <c r="A47">
         <v>-1.0609E-2</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" customFormat="1">
       <c r="A48">
         <v>-1.0292000000000001E-2</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>3.2160000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" customFormat="1">
       <c r="A49">
         <v>-1.0172E-2</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>3.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" customFormat="1">
       <c r="A50">
         <v>-1.0064999999999999E-2</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>3.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" customFormat="1">
       <c r="A51">
         <v>-1.0063000000000001E-2</v>
       </c>
@@ -9574,7 +9577,7 @@
         <v>3.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" customFormat="1">
       <c r="A52">
         <v>-9.9609999999999994E-3</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" customFormat="1">
       <c r="A53">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -9800,7 +9803,7 @@
         <v>3.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" customFormat="1">
       <c r="A54">
         <v>-9.9830000000000006E-3</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" customFormat="1">
       <c r="A55">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>3.238E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" customFormat="1">
       <c r="A56">
         <v>-9.9799999999999993E-3</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>3.212E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" customFormat="1">
       <c r="A57">
         <v>-1.005E-2</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>3.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" customFormat="1">
       <c r="A58">
         <v>-1.0281999999999999E-2</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>3.1909999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" customFormat="1">
       <c r="A59">
         <v>-1.0265E-2</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>3.2139999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" customFormat="1">
       <c r="A60">
         <v>-1.0356000000000001E-2</v>
       </c>
@@ -10591,7 +10594,7 @@
         <v>3.1649999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" customFormat="1">
       <c r="A61">
         <v>-1.0489999999999999E-2</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>3.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" customFormat="1">
       <c r="A62">
         <v>-1.0866000000000001E-2</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>3.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" customFormat="1">
       <c r="A63">
         <v>-1.0864E-2</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>3.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" customFormat="1">
       <c r="A64">
         <v>-1.0709E-2</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>2.9120000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" customFormat="1">
       <c r="A65">
         <v>-1.0669E-2</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>2.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" customFormat="1">
       <c r="A66">
         <v>-1.0749999999999999E-2</v>
       </c>
@@ -11269,7 +11272,7 @@
         <v>2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" customFormat="1">
       <c r="A67">
         <v>-1.0749999999999999E-2</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>2.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" customFormat="1">
       <c r="A68">
         <v>-1.0692E-2</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>2.1849999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" customFormat="1">
       <c r="A69">
         <v>-1.0525E-2</v>
       </c>
@@ -11608,7 +11611,7 @@
         <v>1.92E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" customFormat="1">
       <c r="A70">
         <v>-1.0342E-2</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>1.655E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" customFormat="1">
       <c r="A71">
         <v>-1.0305E-2</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>1.426E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" customFormat="1">
       <c r="A72">
         <v>-1.0305999999999999E-2</v>
       </c>
@@ -11947,7 +11950,7 @@
         <v>1.3159999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" customFormat="1">
       <c r="A73">
         <v>-1.0312E-2</v>
       </c>
@@ -12060,7 +12063,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" customFormat="1">
       <c r="A74">
         <v>-1.042E-2</v>
       </c>
@@ -12173,7 +12176,7 @@
         <v>1.2110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" customFormat="1">
       <c r="A75">
         <v>-1.0284E-2</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" customFormat="1">
       <c r="A76">
         <v>-1.0463999999999999E-2</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>1.3470000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" customFormat="1">
       <c r="A77">
         <v>-1.0571000000000001E-2</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>1.4829999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" customFormat="1">
       <c r="A78">
         <v>-1.0709E-2</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>1.578E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" customFormat="1">
       <c r="A79">
         <v>-1.0803E-2</v>
       </c>
@@ -12756,12 +12759,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="13"/>
+    <col min="1" max="16384" width="11.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" s="13">
         <v>-1.7871999999999999E-2</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>9.5980000000000006E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37">
       <c r="A2" s="13">
         <v>-1.8088E-2</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>4.3020000000000003E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37">
       <c r="A3" s="13">
         <v>-1.7731E-2</v>
       </c>
@@ -13100,7 +13103,7 @@
         <v>7.8580000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37">
       <c r="A4" s="13">
         <v>-1.8546E-2</v>
       </c>
@@ -13213,7 +13216,7 @@
         <v>7.7479999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37">
       <c r="A5" s="13">
         <v>-1.8301999999999999E-2</v>
       </c>
@@ -13326,7 +13329,7 @@
         <v>8.0269999999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37">
       <c r="A6" s="13">
         <v>-1.8294999999999999E-2</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>7.4859999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37">
       <c r="A7" s="13">
         <v>-2.0648E-2</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>6.5230000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37">
       <c r="A8" s="13">
         <v>-2.027E-2</v>
       </c>
@@ -13665,7 +13668,7 @@
         <v>6.4780000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37">
       <c r="A9" s="13">
         <v>-1.7846000000000001E-2</v>
       </c>
@@ -13778,7 +13781,7 @@
         <v>7.4660000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37">
       <c r="A10" s="13">
         <v>-1.4449999999999999E-2</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>8.2150000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37">
       <c r="A11" s="13">
         <v>-1.5069000000000001E-2</v>
       </c>
@@ -14004,7 +14007,7 @@
         <v>7.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37">
       <c r="A12" s="13">
         <v>-1.6958999999999998E-2</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>6.398E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37">
       <c r="A13" s="13">
         <v>-1.8593999999999999E-2</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>4.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37">
       <c r="A14" s="13">
         <v>-1.7714000000000001E-2</v>
       </c>
@@ -14343,7 +14346,7 @@
         <v>5.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37">
       <c r="A15" s="13">
         <v>-1.4026E-2</v>
       </c>
@@ -14456,7 +14459,7 @@
         <v>6.4669999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37">
       <c r="A16" s="13">
         <v>-1.0862999999999999E-2</v>
       </c>
@@ -14569,7 +14572,7 @@
         <v>7.0780000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37">
       <c r="A17" s="13">
         <v>-1.1547999999999999E-2</v>
       </c>
@@ -14682,7 +14685,7 @@
         <v>5.8129999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37">
       <c r="A18" s="13">
         <v>-1.3995E-2</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>3.741E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37">
       <c r="A19" s="13">
         <v>-1.5415999999999999E-2</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>2.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37">
       <c r="A20" s="13">
         <v>-1.302E-2</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37">
       <c r="A21" s="13">
         <v>-9.7009999999999996E-3</v>
       </c>
@@ -15134,7 +15137,7 @@
         <v>4.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37">
       <c r="A22" s="13">
         <v>-5.5519999999999996E-3</v>
       </c>
@@ -15247,7 +15250,7 @@
         <v>5.7920000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37">
       <c r="A23" s="13">
         <v>-6.1029999999999999E-3</v>
       </c>
@@ -15360,7 +15363,7 @@
         <v>4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37">
       <c r="A24" s="13">
         <v>-9.4459999999999995E-3</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>2.7230000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37">
       <c r="A25" s="13">
         <v>-1.1916E-2</v>
       </c>
@@ -15586,7 +15589,7 @@
         <v>9.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37">
       <c r="A26" s="13">
         <v>-1.162E-2</v>
       </c>
@@ -15699,7 +15702,7 @@
         <v>9.68E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37">
       <c r="A27" s="13">
         <v>-8.2749999999999994E-3</v>
       </c>
@@ -15812,7 +15815,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37">
       <c r="A28" s="13">
         <v>-4.0740000000000004E-3</v>
       </c>
@@ -15925,7 +15928,7 @@
         <v>4.5069999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37">
       <c r="A29" s="13">
         <v>-1.5449999999999999E-3</v>
       </c>
@@ -16038,7 +16041,7 @@
         <v>5.0889999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37">
       <c r="A30" s="13">
         <v>-2.8300000000000001E-3</v>
       </c>
@@ -16151,7 +16154,7 @@
         <v>3.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37">
       <c r="A31" s="13">
         <v>-6.313E-3</v>
       </c>
@@ -16264,7 +16267,7 @@
         <v>1.1379999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37">
       <c r="A32" s="13">
         <v>-8.8730000000000007E-3</v>
       </c>
@@ -16377,7 +16380,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37">
       <c r="A33" s="13">
         <v>-8.6660000000000001E-3</v>
       </c>
@@ -16490,7 +16493,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37">
       <c r="A34" s="13">
         <v>-5.4660000000000004E-3</v>
       </c>
@@ -16603,7 +16606,7 @@
         <v>9.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37">
       <c r="A35" s="13">
         <v>-6.2100000000000002E-4</v>
       </c>
@@ -16716,7 +16719,7 @@
         <v>3.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37">
       <c r="A36" s="13">
         <v>2.892E-3</v>
       </c>
@@ -16829,7 +16832,7 @@
         <v>4.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37">
       <c r="A37" s="13">
         <v>3.722E-3</v>
       </c>
@@ -16942,7 +16945,7 @@
         <v>3.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37">
       <c r="A38" s="13">
         <v>1.487E-3</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>2.3259999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37">
       <c r="A39" s="13">
         <v>-1.918E-3</v>
       </c>
@@ -17168,7 +17171,7 @@
         <v>-1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37">
       <c r="A40" s="13">
         <v>-4.9290000000000002E-3</v>
       </c>
@@ -17281,7 +17284,7 @@
         <v>-1.72E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37">
       <c r="A41" s="13">
         <v>-5.9439999999999996E-3</v>
       </c>
@@ -17394,7 +17397,7 @@
         <v>-2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37">
       <c r="A42" s="13">
         <v>-4.3629999999999997E-3</v>
       </c>
@@ -17507,7 +17510,7 @@
         <v>-1.4679999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37">
       <c r="A43" s="13">
         <v>-9.0600000000000001E-4</v>
       </c>
@@ -17620,7 +17623,7 @@
         <v>4.2499999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37">
       <c r="A44" s="13">
         <v>2.9910000000000002E-3</v>
       </c>
@@ -17733,7 +17736,7 @@
         <v>2.31E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37">
       <c r="A45" s="13">
         <v>4.7140000000000003E-3</v>
       </c>
@@ -17846,7 +17849,7 @@
         <v>3.395E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37">
       <c r="A46" s="13">
         <v>5.8609999999999999E-3</v>
       </c>
@@ -17959,7 +17962,7 @@
         <v>3.656E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37">
       <c r="A47" s="13">
         <v>4.8219999999999999E-3</v>
       </c>
@@ -18072,7 +18075,7 @@
         <v>2.7009999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37">
       <c r="A48" s="13">
         <v>1.977E-3</v>
       </c>
@@ -18185,7 +18188,7 @@
         <v>8.03E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37">
       <c r="A49" s="13">
         <v>-1.575E-3</v>
       </c>
@@ -18298,7 +18301,7 @@
         <v>-1.1659999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37">
       <c r="A50" s="13">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>-2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37">
       <c r="A51" s="13">
         <v>-5.1079999999999997E-3</v>
       </c>
@@ -18524,7 +18527,7 @@
         <v>-2.967E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37">
       <c r="A52" s="13">
         <v>-3.8509999999999998E-3</v>
       </c>
@@ -18637,7 +18640,7 @@
         <v>-2.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37">
       <c r="A53" s="13">
         <v>-1.008E-3</v>
       </c>
@@ -18750,7 +18753,7 @@
         <v>-4.5399999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37">
       <c r="A54" s="13">
         <v>2.6949999999999999E-3</v>
       </c>
@@ -18863,7 +18866,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37">
       <c r="A55" s="13">
         <v>5.9519999999999998E-3</v>
       </c>
@@ -18976,7 +18979,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37">
       <c r="A56" s="13">
         <v>7.9100000000000004E-3</v>
       </c>
@@ -19089,7 +19092,7 @@
         <v>3.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37">
       <c r="A57" s="13">
         <v>7.7559999999999999E-3</v>
       </c>
@@ -19202,7 +19205,7 @@
         <v>3.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37">
       <c r="A58" s="13">
         <v>6.0660000000000002E-3</v>
       </c>
@@ -19315,7 +19318,7 @@
         <v>2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37">
       <c r="A59" s="13">
         <v>3.14E-3</v>
       </c>
@@ -19428,7 +19431,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37">
       <c r="A60" s="13">
         <v>1.3200000000000001E-4</v>
       </c>
@@ -19541,7 +19544,7 @@
         <v>-1.075E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37">
       <c r="A61" s="13">
         <v>-2.2959999999999999E-3</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>-2.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37">
       <c r="A62" s="13">
         <v>-3.689E-3</v>
       </c>
@@ -19767,7 +19770,7 @@
         <v>-2.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37">
       <c r="A63" s="13">
         <v>-3.5109999999999998E-3</v>
       </c>
@@ -19880,7 +19883,7 @@
         <v>-2.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37">
       <c r="A64" s="13">
         <v>-1.6869999999999999E-3</v>
       </c>
@@ -19993,7 +19996,7 @@
         <v>-1.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37">
       <c r="A65" s="13">
         <v>9.01E-4</v>
       </c>
@@ -20106,7 +20109,7 @@
         <v>3.4999999999999997E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37">
       <c r="A66" s="13">
         <v>3.9820000000000003E-3</v>
       </c>
@@ -20219,7 +20222,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37">
       <c r="A67" s="13">
         <v>7.1980000000000004E-3</v>
       </c>
@@ -20332,7 +20335,7 @@
         <v>3.2130000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37">
       <c r="A68" s="13">
         <v>8.8610000000000008E-3</v>
       </c>
@@ -20445,7 +20448,7 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37">
       <c r="A69" s="13">
         <v>1.0116999999999999E-2</v>
       </c>
@@ -20558,7 +20561,7 @@
         <v>4.3810000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37">
       <c r="A70" s="13">
         <v>9.9889999999999996E-3</v>
       </c>
@@ -20671,7 +20674,7 @@
         <v>4.0749999999999996E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37">
       <c r="A71" s="13">
         <v>8.7559999999999999E-3</v>
       </c>
@@ -20784,7 +20787,7 @@
         <v>3.13E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37">
       <c r="A72" s="13">
         <v>7.2090000000000001E-3</v>
       </c>
@@ -20897,7 +20900,7 @@
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37">
       <c r="A73" s="13">
         <v>4.4799999999999996E-3</v>
       </c>
@@ -21010,7 +21013,7 @@
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37">
       <c r="A74" s="13">
         <v>1.864E-3</v>
       </c>
@@ -21123,7 +21126,7 @@
         <v>-9.5600000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37">
       <c r="A75" s="13">
         <v>2.3699999999999999E-4</v>
       </c>
@@ -21236,7 +21239,7 @@
         <v>-1.952E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37">
       <c r="A76" s="13">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -21349,7 +21352,7 @@
         <v>-2.8530000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37">
       <c r="A77" s="13">
         <v>-2.4559999999999998E-3</v>
       </c>
@@ -21462,7 +21465,7 @@
         <v>-3.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37">
       <c r="A78" s="13">
         <v>-2.1870000000000001E-3</v>
       </c>
@@ -21575,7 +21578,7 @@
         <v>-3.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37">
       <c r="A79" s="13">
         <v>-2.7109999999999999E-3</v>
       </c>
@@ -21706,35 +21709,35 @@
       <selection activeCell="A83" sqref="A83:XFD170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="58" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="70" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="78" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="58" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="70" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="78" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>-0.133385</v>
       </c>
@@ -21847,7 +21850,7 @@
         <v>5.9284000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>-0.12271600000000001</v>
       </c>
@@ -21960,7 +21963,7 @@
         <v>5.2031000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>-0.106986</v>
       </c>
@@ -22073,7 +22076,7 @@
         <v>4.5156000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>-9.3688999999999995E-2</v>
       </c>
@@ -22186,7 +22189,7 @@
         <v>3.7352999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>-8.2291000000000003E-2</v>
       </c>
@@ -22299,7 +22302,7 @@
         <v>3.1369000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>-7.1478E-2</v>
       </c>
@@ -22412,7 +22415,7 @@
         <v>2.6693999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>-6.3391000000000003E-2</v>
       </c>
@@ -22525,7 +22528,7 @@
         <v>2.3102999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37">
       <c r="A9">
         <v>-5.6606999999999998E-2</v>
       </c>
@@ -22638,7 +22641,7 @@
         <v>2.0542000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>-5.1151000000000002E-2</v>
       </c>
@@ -22751,7 +22754,7 @@
         <v>1.8499000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>-4.6461000000000002E-2</v>
       </c>
@@ -22864,7 +22867,7 @@
         <v>1.6685999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>-4.2729999999999997E-2</v>
       </c>
@@ -22977,7 +22980,7 @@
         <v>1.5391E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>-3.9294000000000003E-2</v>
       </c>
@@ -23090,7 +23093,7 @@
         <v>1.3746E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>-3.6886000000000002E-2</v>
       </c>
@@ -23203,7 +23206,7 @@
         <v>1.2531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>-3.4603000000000002E-2</v>
       </c>
@@ -23316,7 +23319,7 @@
         <v>1.1544E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>-3.2263E-2</v>
       </c>
@@ -23429,7 +23432,7 @@
         <v>1.0629E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>-3.0047999999999998E-2</v>
       </c>
@@ -23542,7 +23545,7 @@
         <v>9.9539999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>-2.8740000000000002E-2</v>
       </c>
@@ -23655,7 +23658,7 @@
         <v>9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>-2.6904000000000001E-2</v>
       </c>
@@ -23768,7 +23771,7 @@
         <v>8.8509999999999995E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>-2.5165E-2</v>
       </c>
@@ -23881,7 +23884,7 @@
         <v>8.4279999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>-2.3598999999999998E-2</v>
       </c>
@@ -23994,7 +23997,7 @@
         <v>8.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>-2.2419999999999999E-2</v>
       </c>
@@ -24107,7 +24110,7 @@
         <v>7.7739999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>-2.1426000000000001E-2</v>
       </c>
@@ -24220,7 +24223,7 @@
         <v>7.5079999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>-2.0347000000000001E-2</v>
       </c>
@@ -24333,7 +24336,7 @@
         <v>7.2659999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>-1.9337E-2</v>
       </c>
@@ -24446,7 +24449,7 @@
         <v>6.9820000000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>-1.8768E-2</v>
       </c>
@@ -24559,7 +24562,7 @@
         <v>6.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>-1.8110000000000001E-2</v>
       </c>
@@ -24672,7 +24675,7 @@
         <v>6.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>-1.7107000000000001E-2</v>
       </c>
@@ -24785,7 +24788,7 @@
         <v>6.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>-1.6622000000000001E-2</v>
       </c>
@@ -24898,7 +24901,7 @@
         <v>6.1609999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>-1.6263E-2</v>
       </c>
@@ -25011,7 +25014,7 @@
         <v>5.9849999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>-1.5591000000000001E-2</v>
       </c>
@@ -25124,7 +25127,7 @@
         <v>5.7970000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>-1.5424999999999999E-2</v>
       </c>
@@ -25237,7 +25240,7 @@
         <v>5.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>-1.4819000000000001E-2</v>
       </c>
@@ -25350,7 +25353,7 @@
         <v>5.4010000000000004E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>-1.4581E-2</v>
       </c>
@@ -25463,7 +25466,7 @@
         <v>5.1939999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>-1.4089000000000001E-2</v>
       </c>
@@ -25576,7 +25579,7 @@
         <v>4.9490000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>-1.3668E-2</v>
       </c>
@@ -25689,7 +25692,7 @@
         <v>4.7390000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>-1.3519E-2</v>
       </c>
@@ -25802,7 +25805,7 @@
         <v>4.4320000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>-1.3158E-2</v>
       </c>
@@ -25915,7 +25918,7 @@
         <v>4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>-1.3108E-2</v>
       </c>
@@ -26028,7 +26031,7 @@
         <v>3.7820000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>-1.3062000000000001E-2</v>
       </c>
@@ -26141,7 +26144,7 @@
         <v>3.4949999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>-1.3098E-2</v>
       </c>
@@ -26254,7 +26257,7 @@
         <v>3.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>-1.2859000000000001E-2</v>
       </c>
@@ -26367,7 +26370,7 @@
         <v>2.947E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>-1.281E-2</v>
       </c>
@@ -26480,7 +26483,7 @@
         <v>2.686E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>-1.2343E-2</v>
       </c>
@@ -26593,7 +26596,7 @@
         <v>2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>-1.1986999999999999E-2</v>
       </c>
@@ -26706,7 +26709,7 @@
         <v>2.3860000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>-1.0781000000000001E-2</v>
       </c>
@@ -26819,7 +26822,7 @@
         <v>3.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>-1.073E-2</v>
       </c>
@@ -26932,7 +26935,7 @@
         <v>3.2039999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37">
       <c r="A48">
         <v>-1.0609E-2</v>
       </c>
@@ -27045,7 +27048,7 @@
         <v>3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37">
       <c r="A49">
         <v>-1.0292000000000001E-2</v>
       </c>
@@ -27158,7 +27161,7 @@
         <v>3.2160000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37">
       <c r="A50">
         <v>-1.0172E-2</v>
       </c>
@@ -27271,7 +27274,7 @@
         <v>3.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37">
       <c r="A51">
         <v>-1.0064999999999999E-2</v>
       </c>
@@ -27384,7 +27387,7 @@
         <v>3.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37">
       <c r="A52">
         <v>-1.0063000000000001E-2</v>
       </c>
@@ -27497,7 +27500,7 @@
         <v>3.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37">
       <c r="A53">
         <v>-9.9609999999999994E-3</v>
       </c>
@@ -27610,7 +27613,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37">
       <c r="A54">
         <v>-9.9220000000000003E-3</v>
       </c>
@@ -27723,7 +27726,7 @@
         <v>3.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37">
       <c r="A55">
         <v>-9.9830000000000006E-3</v>
       </c>
@@ -27836,7 +27839,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37">
       <c r="A56">
         <v>-9.9399999999999992E-3</v>
       </c>
@@ -27949,7 +27952,7 @@
         <v>3.238E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37">
       <c r="A57">
         <v>-9.9799999999999993E-3</v>
       </c>
@@ -28062,7 +28065,7 @@
         <v>3.212E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37">
       <c r="A58">
         <v>-1.005E-2</v>
       </c>
@@ -28175,7 +28178,7 @@
         <v>3.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37">
       <c r="A59">
         <v>-1.0281999999999999E-2</v>
       </c>
@@ -28288,7 +28291,7 @@
         <v>3.1909999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37">
       <c r="A60">
         <v>-1.0265E-2</v>
       </c>
@@ -28401,7 +28404,7 @@
         <v>3.2139999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37">
       <c r="A61">
         <v>-1.0356000000000001E-2</v>
       </c>
@@ -28514,7 +28517,7 @@
         <v>3.1649999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37">
       <c r="A62">
         <v>-1.0489999999999999E-2</v>
       </c>
@@ -28627,7 +28630,7 @@
         <v>3.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37">
       <c r="A63">
         <v>-1.0866000000000001E-2</v>
       </c>
@@ -28740,7 +28743,7 @@
         <v>3.1120000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37">
       <c r="A64">
         <v>-1.0864E-2</v>
       </c>
@@ -28853,7 +28856,7 @@
         <v>3.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>-1.0709E-2</v>
       </c>
@@ -28966,7 +28969,7 @@
         <v>2.9120000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>-1.0669E-2</v>
       </c>
@@ -29079,7 +29082,7 @@
         <v>2.8289999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>-1.0749999999999999E-2</v>
       </c>
@@ -29192,7 +29195,7 @@
         <v>2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>-1.0749999999999999E-2</v>
       </c>
@@ -29305,7 +29308,7 @@
         <v>2.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>-1.0692E-2</v>
       </c>
@@ -29418,7 +29421,7 @@
         <v>2.1849999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>-1.0525E-2</v>
       </c>
@@ -29531,7 +29534,7 @@
         <v>1.92E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37">
       <c r="A71">
         <v>-1.0342E-2</v>
       </c>
@@ -29644,7 +29647,7 @@
         <v>1.655E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37">
       <c r="A72">
         <v>-1.0305E-2</v>
       </c>
@@ -29757,7 +29760,7 @@
         <v>1.426E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37">
       <c r="A73">
         <v>-1.0305999999999999E-2</v>
       </c>
@@ -29870,7 +29873,7 @@
         <v>1.3159999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>-1.0312E-2</v>
       </c>
@@ -29983,7 +29986,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37">
       <c r="A75">
         <v>-1.042E-2</v>
       </c>
@@ -30096,7 +30099,7 @@
         <v>1.2110000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37">
       <c r="A76">
         <v>-1.0284E-2</v>
       </c>
@@ -30209,7 +30212,7 @@
         <v>1.2030000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37">
       <c r="A77">
         <v>-1.0463999999999999E-2</v>
       </c>
@@ -30322,7 +30325,7 @@
         <v>1.3470000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37">
       <c r="A78">
         <v>-1.0571000000000001E-2</v>
       </c>
@@ -30435,7 +30438,7 @@
         <v>1.4829999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37">
       <c r="A79">
         <v>-1.0709E-2</v>
       </c>
@@ -30548,7 +30551,7 @@
         <v>1.578E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>-1.0803E-2</v>
       </c>
@@ -30661,12 +30664,12 @@
         <v>1.622E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37">
       <c r="A82" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37">
       <c r="A83">
         <v>-1.7871999999999999E-2</v>
       </c>
@@ -30779,7 +30782,7 @@
         <v>9.5980000000000006E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37">
       <c r="A84">
         <v>-1.8088E-2</v>
       </c>
@@ -30892,7 +30895,7 @@
         <v>4.3020000000000003E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37">
       <c r="A85">
         <v>-1.7731E-2</v>
       </c>
@@ -31005,7 +31008,7 @@
         <v>7.8580000000000004E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37">
       <c r="A86">
         <v>-1.8546E-2</v>
       </c>
@@ -31118,7 +31121,7 @@
         <v>7.7479999999999997E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37">
       <c r="A87">
         <v>-1.8301999999999999E-2</v>
       </c>
@@ -31231,7 +31234,7 @@
         <v>8.0269999999999994E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37">
       <c r="A88">
         <v>-1.8294999999999999E-2</v>
       </c>
@@ -31344,7 +31347,7 @@
         <v>7.4859999999999996E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37">
       <c r="A89">
         <v>-2.0648E-2</v>
       </c>
@@ -31457,7 +31460,7 @@
         <v>6.5230000000000002E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37">
       <c r="A90">
         <v>-2.027E-2</v>
       </c>
@@ -31570,7 +31573,7 @@
         <v>6.4780000000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37">
       <c r="A91">
         <v>-1.7846000000000001E-2</v>
       </c>
@@ -31683,7 +31686,7 @@
         <v>7.4660000000000004E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37">
       <c r="A92">
         <v>-1.4449999999999999E-2</v>
       </c>
@@ -31796,7 +31799,7 @@
         <v>8.2150000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37">
       <c r="A93">
         <v>-1.5069000000000001E-2</v>
       </c>
@@ -31909,7 +31912,7 @@
         <v>7.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37">
       <c r="A94">
         <v>-1.6958999999999998E-2</v>
       </c>
@@ -32022,7 +32025,7 @@
         <v>6.398E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37">
       <c r="A95">
         <v>-1.8593999999999999E-2</v>
       </c>
@@ -32135,7 +32138,7 @@
         <v>4.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37">
       <c r="A96">
         <v>-1.7714000000000001E-2</v>
       </c>
@@ -32248,7 +32251,7 @@
         <v>5.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37">
       <c r="A97">
         <v>-1.4026E-2</v>
       </c>
@@ -32361,7 +32364,7 @@
         <v>6.4669999999999997E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>-1.0862999999999999E-2</v>
       </c>
@@ -32474,7 +32477,7 @@
         <v>7.0780000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37">
       <c r="A99">
         <v>-1.1547999999999999E-2</v>
       </c>
@@ -32587,7 +32590,7 @@
         <v>5.8129999999999996E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37">
       <c r="A100">
         <v>-1.3995E-2</v>
       </c>
@@ -32700,7 +32703,7 @@
         <v>3.741E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37">
       <c r="A101">
         <v>-1.5415999999999999E-2</v>
       </c>
@@ -32813,7 +32816,7 @@
         <v>2.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37">
       <c r="A102">
         <v>-1.302E-2</v>
       </c>
@@ -32926,7 +32929,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37">
       <c r="A103">
         <v>-9.7009999999999996E-3</v>
       </c>
@@ -33039,7 +33042,7 @@
         <v>4.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>-5.5519999999999996E-3</v>
       </c>
@@ -33152,7 +33155,7 @@
         <v>5.7920000000000003E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37">
       <c r="A105">
         <v>-6.1029999999999999E-3</v>
       </c>
@@ -33265,7 +33268,7 @@
         <v>4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37">
       <c r="A106">
         <v>-9.4459999999999995E-3</v>
       </c>
@@ -33378,7 +33381,7 @@
         <v>2.7230000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37">
       <c r="A107">
         <v>-1.1916E-2</v>
       </c>
@@ -33491,7 +33494,7 @@
         <v>9.0600000000000001E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37">
       <c r="A108">
         <v>-1.162E-2</v>
       </c>
@@ -33604,7 +33607,7 @@
         <v>9.68E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37">
       <c r="A109">
         <v>-8.2749999999999994E-3</v>
       </c>
@@ -33717,7 +33720,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37">
       <c r="A110">
         <v>-4.0740000000000004E-3</v>
       </c>
@@ -33830,7 +33833,7 @@
         <v>4.5069999999999997E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37">
       <c r="A111">
         <v>-1.5449999999999999E-3</v>
       </c>
@@ -33943,7 +33946,7 @@
         <v>5.0889999999999998E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37">
       <c r="A112">
         <v>-2.8300000000000001E-3</v>
       </c>
@@ -34056,7 +34059,7 @@
         <v>3.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37">
       <c r="A113">
         <v>-6.313E-3</v>
       </c>
@@ -34169,7 +34172,7 @@
         <v>1.1379999999999999E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37">
       <c r="A114">
         <v>-8.8730000000000007E-3</v>
       </c>
@@ -34282,7 +34285,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37">
       <c r="A115">
         <v>-8.6660000000000001E-3</v>
       </c>
@@ -34395,7 +34398,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37">
       <c r="A116">
         <v>-5.4660000000000004E-3</v>
       </c>
@@ -34508,7 +34511,7 @@
         <v>9.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37">
       <c r="A117">
         <v>-6.2100000000000002E-4</v>
       </c>
@@ -34621,7 +34624,7 @@
         <v>3.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37">
       <c r="A118">
         <v>2.892E-3</v>
       </c>
@@ -34734,7 +34737,7 @@
         <v>4.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37">
       <c r="A119">
         <v>3.722E-3</v>
       </c>
@@ -34847,7 +34850,7 @@
         <v>3.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37">
       <c r="A120">
         <v>1.487E-3</v>
       </c>
@@ -34960,7 +34963,7 @@
         <v>2.3259999999999999E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37">
       <c r="A121">
         <v>-1.918E-3</v>
       </c>
@@ -35073,7 +35076,7 @@
         <v>-1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37">
       <c r="A122">
         <v>-4.9290000000000002E-3</v>
       </c>
@@ -35186,7 +35189,7 @@
         <v>-1.72E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37">
       <c r="A123">
         <v>-5.9439999999999996E-3</v>
       </c>
@@ -35299,7 +35302,7 @@
         <v>-2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37">
       <c r="A124">
         <v>-4.3629999999999997E-3</v>
       </c>
@@ -35412,7 +35415,7 @@
         <v>-1.4679999999999999E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37">
       <c r="A125">
         <v>-9.0600000000000001E-4</v>
       </c>
@@ -35525,7 +35528,7 @@
         <v>4.2499999999999998E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37">
       <c r="A126">
         <v>2.9910000000000002E-3</v>
       </c>
@@ -35638,7 +35641,7 @@
         <v>2.31E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37">
       <c r="A127">
         <v>4.7140000000000003E-3</v>
       </c>
@@ -35751,7 +35754,7 @@
         <v>3.395E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37">
       <c r="A128">
         <v>5.8609999999999999E-3</v>
       </c>
@@ -35864,7 +35867,7 @@
         <v>3.656E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37">
       <c r="A129">
         <v>4.8219999999999999E-3</v>
       </c>
@@ -35977,7 +35980,7 @@
         <v>2.7009999999999998E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37">
       <c r="A130">
         <v>1.977E-3</v>
       </c>
@@ -36090,7 +36093,7 @@
         <v>8.03E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37">
       <c r="A131">
         <v>-1.575E-3</v>
       </c>
@@ -36203,7 +36206,7 @@
         <v>-1.1659999999999999E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37">
       <c r="A132">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -36316,7 +36319,7 @@
         <v>-2.6329999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37">
       <c r="A133">
         <v>-5.1079999999999997E-3</v>
       </c>
@@ -36429,7 +36432,7 @@
         <v>-2.967E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37">
       <c r="A134">
         <v>-3.8509999999999998E-3</v>
       </c>
@@ -36542,7 +36545,7 @@
         <v>-2.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37">
       <c r="A135">
         <v>-1.008E-3</v>
       </c>
@@ -36655,7 +36658,7 @@
         <v>-4.5399999999999998E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37">
       <c r="A136">
         <v>2.6949999999999999E-3</v>
       </c>
@@ -36768,7 +36771,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37">
       <c r="A137">
         <v>5.9519999999999998E-3</v>
       </c>
@@ -36881,7 +36884,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37">
       <c r="A138">
         <v>7.9100000000000004E-3</v>
       </c>
@@ -36994,7 +36997,7 @@
         <v>3.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37">
       <c r="A139">
         <v>7.7559999999999999E-3</v>
       </c>
@@ -37107,7 +37110,7 @@
         <v>3.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37">
       <c r="A140">
         <v>6.0660000000000002E-3</v>
       </c>
@@ -37220,7 +37223,7 @@
         <v>2.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37">
       <c r="A141">
         <v>3.14E-3</v>
       </c>
@@ -37333,7 +37336,7 @@
         <v>6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37">
       <c r="A142">
         <v>1.3200000000000001E-4</v>
       </c>
@@ -37446,7 +37449,7 @@
         <v>-1.075E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37">
       <c r="A143">
         <v>-2.2959999999999999E-3</v>
       </c>
@@ -37559,7 +37562,7 @@
         <v>-2.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37">
       <c r="A144">
         <v>-3.689E-3</v>
       </c>
@@ -37672,7 +37675,7 @@
         <v>-2.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37">
       <c r="A145">
         <v>-3.5109999999999998E-3</v>
       </c>
@@ -37785,7 +37788,7 @@
         <v>-2.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37">
       <c r="A146">
         <v>-1.6869999999999999E-3</v>
       </c>
@@ -37898,7 +37901,7 @@
         <v>-1.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37">
       <c r="A147">
         <v>9.01E-4</v>
       </c>
@@ -38011,7 +38014,7 @@
         <v>3.4999999999999997E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37">
       <c r="A148">
         <v>3.9820000000000003E-3</v>
       </c>
@@ -38124,7 +38127,7 @@
         <v>1.7949999999999999E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37">
       <c r="A149">
         <v>7.1980000000000004E-3</v>
       </c>
@@ -38237,7 +38240,7 @@
         <v>3.2130000000000001E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37">
       <c r="A150">
         <v>8.8610000000000008E-3</v>
       </c>
@@ -38350,7 +38353,7 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37">
       <c r="A151">
         <v>1.0116999999999999E-2</v>
       </c>
@@ -38463,7 +38466,7 @@
         <v>4.3810000000000003E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37">
       <c r="A152">
         <v>9.9889999999999996E-3</v>
       </c>
@@ -38576,7 +38579,7 @@
         <v>4.0749999999999996E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37">
       <c r="A153">
         <v>8.7559999999999999E-3</v>
       </c>
@@ -38689,7 +38692,7 @@
         <v>3.13E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37">
       <c r="A154">
         <v>7.2090000000000001E-3</v>
       </c>
@@ -38802,7 +38805,7 @@
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37">
       <c r="A155">
         <v>4.4799999999999996E-3</v>
       </c>
@@ -38915,7 +38918,7 @@
         <v>3.3500000000000001E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37">
       <c r="A156">
         <v>1.864E-3</v>
       </c>
@@ -39028,7 +39031,7 @@
         <v>-9.5600000000000004E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37">
       <c r="A157">
         <v>2.3699999999999999E-4</v>
       </c>
@@ -39141,7 +39144,7 @@
         <v>-1.952E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37">
       <c r="A158">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -39254,7 +39257,7 @@
         <v>-2.8530000000000001E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37">
       <c r="A159">
         <v>-2.4559999999999998E-3</v>
       </c>
@@ -39367,7 +39370,7 @@
         <v>-3.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37">
       <c r="A160">
         <v>-2.1870000000000001E-3</v>
       </c>
@@ -39480,7 +39483,7 @@
         <v>-3.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37">
       <c r="A161">
         <v>-2.7109999999999999E-3</v>
       </c>
